--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/worklearn/Documents/course-mapper/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2A1FB08-C489-7849-8139-6583A1165FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EDE1F1-F244-0D42-A30B-665E38990E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="740" windowWidth="38400" windowHeight="21800" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="requisites_program1" sheetId="8" r:id="rId8"/>
     <sheet name="courses_program2" sheetId="10" r:id="rId9"/>
     <sheet name="requisites_program2" sheetId="11" r:id="rId10"/>
-    <sheet name="tracks" sheetId="9" r:id="rId11"/>
-    <sheet name="reflections" sheetId="12" r:id="rId12"/>
+    <sheet name="equivalencies" sheetId="13" r:id="rId11"/>
+    <sheet name="tracks" sheetId="9" r:id="rId12"/>
+    <sheet name="reflections" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="301">
   <si>
     <t>course_number</t>
   </si>
@@ -893,6 +894,60 @@
   <si>
     <t>›</t>
   </si>
+  <si>
+    <t>equivalency_id</t>
+  </si>
+  <si>
+    <t>equivalency_number</t>
+  </si>
+  <si>
+    <t>M102</t>
+  </si>
+  <si>
+    <t>M104</t>
+  </si>
+  <si>
+    <t>M110</t>
+  </si>
+  <si>
+    <t>M120</t>
+  </si>
+  <si>
+    <t>M180</t>
+  </si>
+  <si>
+    <t>M184</t>
+  </si>
+  <si>
+    <t>M103</t>
+  </si>
+  <si>
+    <t>M105</t>
+  </si>
+  <si>
+    <t>M121</t>
+  </si>
+  <si>
+    <t>M152</t>
+  </si>
+  <si>
+    <t>M223</t>
+  </si>
+  <si>
+    <t>M302</t>
+  </si>
+  <si>
+    <t>M226</t>
+  </si>
+  <si>
+    <t>M217</t>
+  </si>
+  <si>
+    <t>M253</t>
+  </si>
+  <si>
+    <t>M254</t>
+  </si>
 </sst>
 </file>
 
@@ -901,7 +956,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,6 +1011,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2847,8 +2908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5775,6 +5836,213 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A069C6A7-B946-D341-8999-6171849D292F}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
@@ -6909,7 +7177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -36777,7 +37045,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D55"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -617,28 +617,28 @@
   <si>
     <t>&lt;h3&gt;Course Information&lt;/h3&gt;
 &lt;p&gt;The course map presents all STAT, MATH, and DSCI courses along with prerequisite/corequisite connections. Hover over a course to view the course description, a complete list of prerequisites/corequisites, credit exclusions and notes. Select programs and streams in the menu above.&lt;/p&gt;
-&lt;p&gt;The course map was created by &lt;a href='https://patrickwalls.github.io/'&gt;Patrick Walls&lt;/a&gt; with contributions from &lt;a href='https://github.com/zzzzzyzzzzz'&gt;Karen Zhou&lt;/a&gt; and &lt;a href='https://github.com/LeoLee5566'&gt;Wuyang Li&lt;/a&gt;.&lt;/p&gt;
-&lt;p&gt;&lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/'&gt;&lt;img alt='Creative Commons Licence' style='border-width:0' src='https://i.creativecommons.org/l/by-nc-sa/4.0/88x31.png' /&gt;&lt;/a&gt;&lt;br /&gt;This work is licensed under a &lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/'&gt;Creative Commons Attribution-NonCommercial-ShareAlike 4.0 International License&lt;/a&gt;.&lt;/p&gt;</t>
+&lt;p&gt;This course mapper was created by &lt;a href='https://github.com/siddiskid' target = '_blank'&gt;Siddarth Chilukuri&lt;/a&gt;, &lt;a href='#'&gt;Kevin Lin&lt;/a&gt;, and &lt;a href = '#'&gt;Brian Kim&lt;/a&gt;, based on the original course map by &lt;a href='https://patrickwalls.github.io/' target = '_blank'&gt;Patrick Walls&lt;/a&gt;, with contributions from &lt;a href='https://github.com/zzzzzyzzzzz' target = '_blank'&gt;Karen Zhou&lt;/a&gt; and &lt;a href='https://github.com/LeoLee5566' target = '_blank'&gt;Wuyang Li&lt;/a&gt;.&lt;/p&gt;
+&lt;p&gt;&lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/' target = '_blank'&gt;&lt;img alt='Creative Commons Licence' style='border-width:0' src='https://i.creativecommons.org/l/by-nc-sa/4.0/88x31.png' /&gt;&lt;/a&gt;&lt;br /&gt;This work is licensed under a &lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/' target = '_blank'&gt;Creative Commons Attribution-NonCommercial-ShareAlike 4.0 International License&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
     <t>Major in Statistics</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Major in Statistics - Degree Requirements&lt;/h3&gt;
-&lt;figure class="responsive-figure-table"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;First Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SCIE_V 113&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Additional Communication Requirement&lt;sup&gt;1&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 110 (or 103 and 107)&lt;sup&gt;2&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;DSCI_V 100&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 100 or 102 or 104 (or 120 or 180 or 184)&lt;sup&gt;3&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 101 or 103 or 105 (or 121)&lt;sup&gt;4&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Second Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 210 or MATH_V 210&lt;sup&gt;6&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 200, 220, 221&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 200&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 201&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V/MATH_V 302&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Third and Fourth Years&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;In third year: STAT_V 301, 305, 306 and MATH_V 307&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;In fourth year: STAT_V 404&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 303&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V courses numbered 300 or above&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V courses numbered 400 or above&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V courses numbered 300 or above&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Thematic concentration courses numbered 300 or above&lt;sup&gt;7&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;em&gt;Total Credits for Degree&lt;/em&gt;&lt;/td&gt;&lt;td&gt;120&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;1&lt;/sup&gt; For a full list of acceptable courses see &lt;a href="/node/15384" rel="nofollow"&gt;Communication Requirements&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;2&lt;/sup&gt; A 6-credit combination of two courses may substitute for a 4-credit course to satisfy the specified requirement by decreasing the electives in any year by 2 credits.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;3&lt;/sup&gt; MATH_V 180 or 184 or 120 may substitute for any of the specified differential calculus courses listed and elective credits reduced by 1. MATH_V 110 may substitute for any of the specified differential calculus courses listed and the elective credits decreased by 3.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;4&lt;/sup&gt; MATH_V 121 may substitute for any of the specified integral calculus courses listed and the elective credits decreased by 1.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;5&lt;/sup&gt; Elective credits together with required courses must fulfill the Faculty of Science's:&lt;br&gt;a) &lt;a href="/node/15386" rel="nofollow"&gt;Foundational Requirement&lt;/a&gt;;&lt;br&gt;b) &lt;a href="/node/15386#18467" rel="nofollow"&gt;Laboratory Science Requirement&lt;/a&gt;;&lt;br&gt;c) &lt;a href="/node/15398" rel="nofollow"&gt;Science Breadth Requirement&lt;/a&gt;;&lt;br&gt;d) &lt;a href="/node/15385" rel="nofollow"&gt;Science and Arts Requirements&lt;/a&gt;;&lt;br&gt;e) &lt;a href="/node/15387" rel="nofollow"&gt;Upper-level Requirement&lt;/a&gt;;&lt;br&gt;f) &lt;a href="/node/15405" rel="nofollow"&gt;General Degree Requirements&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;6&lt;/sup&gt; Note that MATH_V 210 may not be offered every year. Students taking MATH_V 210 require an additional credit toward elective requirements.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;7&lt;/sup&gt; More information about the thematic concentration, including some examples of course choices, can be found at Statistics (&lt;a href="http://www.stat.ubc.ca"&gt;www.stat.ubc.ca&lt;/a&gt;).&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/figure&gt;</t>
+    <t>&lt;p class="degree-note"&gt;&lt;em&gt;Note: The course map on the right represents only a subset of the requirements needed to complete the degree. Please refer to the table below or the &lt;a href = 'https://vancouver.calendar.ubc.ca/faculties-colleges-and-schools/faculty-science/bachelor-science/statistics#:~:text=Major%20(0562)%3A%20Statistics%20(STAT)' target = '_blank'&gt;UBC Academic Calendar&lt;/a&gt; for complete degree requirements.&lt;/em&gt;&lt;/p&gt;&lt;h3&gt;Major in Statistics - Degree Requirements&lt;/h3&gt;
+&lt;figure class="responsive-figure-table"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;First Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SCIE_V 113&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Additional Communication Requirement&lt;sup&gt;1&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 110 (or 103 and 107)&lt;sup&gt;2&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;DSCI_V 100&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 100 or 102 or 104 (or 120 or 180 or 184)&lt;sup&gt;3&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 101 or 103 or 105 (or 121)&lt;sup&gt;4&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;11&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Second Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 210 or MATH_V 210&lt;sup&gt;6&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 200, 220, 221&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 200&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 201&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V/MATH_V 302&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Third and Fourth Years&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;In third year: STAT_V 301, 305, 306 and MATH_V 307&lt;/td&gt;&lt;td&gt;12&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;In fourth year: STAT_V 404&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 303&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V courses numbered 300 or above&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V courses numbered 400 or above&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V courses numbered 300 or above&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Thematic concentration courses numbered 300 or above&lt;sup&gt;7&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;9&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;em&gt;Total Credits for Degree&lt;/em&gt;&lt;/td&gt;&lt;td&gt;120&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;1&lt;/sup&gt; For a full list of acceptable courses see &lt;a href="https://vancouver.calendar.ubc.ca/faculties-colleges-and-schools/faculty-science/bachelor-science/communication-requirements" target = '_blank' rel="nofollow"&gt;Communication Requirements&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;2&lt;/sup&gt; A 6-credit combination of two courses may substitute for a 4-credit course to satisfy the specified requirement by decreasing the electives in any year by 2 credits.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;3&lt;/sup&gt; MATH_V 180 or 184 or 120 may substitute for any of the specified differential calculus courses listed and elective credits reduced by 1. MATH_V 110 may substitute for any of the specified differential calculus courses listed and the elective credits decreased by 3.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;4&lt;/sup&gt; MATH_V 121 may substitute for any of the specified integral calculus courses listed and the elective credits decreased by 1.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;5&lt;/sup&gt; Elective credits together with required courses must fulfill the Faculty of Science's:&lt;br&gt;a) &lt;a href="https://vancouver.calendar.ubc.ca/node/15386" target = '_blank' rel="nofollow"&gt;Foundational Requirement&lt;/a&gt;;&lt;br&gt;b) &lt;a href="https://vancouver.calendar.ubc.ca/node/15386#18467" target = '_blank' rel="nofollow"&gt;Laboratory Science Requirement&lt;/a&gt;;&lt;br&gt;c) &lt;a href="https://vancouver.calendar.ubc.ca/node/15398" target = '_blank' rel="nofollow"&gt;Science Breadth Requirement&lt;/a&gt;;&lt;br&gt;d) &lt;a href="https://vancouver.calendar.ubc.ca/node/15385" target = '_blank' rel="nofollow"&gt;Science and Arts Requirements&lt;/a&gt;;&lt;br&gt;e) &lt;a href="https://vancouver.calendar.ubc.ca/node/15387" target = '_blank' rel="nofollow"&gt;Upper-level Requirement&lt;/a&gt;;&lt;br&gt;f) &lt;a href="https://vancouver.calendar.ubc.ca/node/15405" target = '_blank' rel="nofollow"&gt;General Degree Requirements&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;6&lt;/sup&gt; Note that MATH_V 210 may not be offered every year. Students taking MATH_V 210 require an additional credit toward elective requirements.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;7&lt;/sup&gt; More information about the thematic concentration, including some examples of course choices, can be found at Statistics (&lt;a href="http://www.stat.ubc.ca" target = '_blank'&gt;www.stat.ubc.ca&lt;/a&gt;).&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/figure&gt;</t>
   </si>
   <si>
     <t>Honours in Statistics</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Honours in Statistics - Degree Requirements&lt;/h3&gt;
-&lt;figure class="responsive-figure-table"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;First Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SCIE_V 113&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Additional Communication Requirement&lt;sup&gt;1&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 110 (or 103 and 107)&lt;sup&gt;2&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;DSCI_V 100&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 120 or 180 or 184 (or 100 or 102 or 104)&lt;sup&gt;3&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 101 or 103 or 105 (or 121)&lt;sup&gt;4&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Second Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 210 or MATH_V 210&lt;sup&gt;6&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 226&lt;sup&gt;7&lt;/sup&gt; or 200&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 220&lt;sup&gt;7&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 223 or 221&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 227 or 317&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 200&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 201&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V/MATH_V 302&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Third and Fourth Years&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;In third year: STAT_V 305, 306 and MATH_V 303&lt;sup&gt;8&lt;/sup&gt;, 307, 320, 321&lt;/td&gt;&lt;td&gt;18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;In fourth year: STAT_V 404, 460 and 461 and 6 credits chosen from MATH_V 418, 419, 420, 421 and statistics courses numbered 400 or above&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V courses numbered 300 or above&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V courses numbered 400 or above&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Additional CPSC_V, DSCI_V, and MATH_V courses numbered 300 or above&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;21&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;69&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;em&gt;Total Credits for Degree&lt;/em&gt;&lt;/td&gt;&lt;td&gt;132&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;1&lt;/sup&gt; For a full list of acceptable courses, see &lt;a href="/node/15384" rel="nofollow"&gt;Communication Requirements&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;2&lt;/sup&gt; A 6-credit combination of two courses may substitute for a 4-credit course to satisfy the specified requirement by decreasing the electives in any year by 2 credits.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;3&lt;/sup&gt; MATH_V 100 or 102 or 104 may substitute for any of the specified differential calculus courses listed and elective credits increased by 1. MATH_V 110 may substitute for any of the specified differential calculus courses listed and the elective credits reduced by 2.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;4&lt;/sup&gt; MATH_V 121 may substitute for any of the specified integral calculus courses listed and the elective credits decreased by 1.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;5&lt;/sup&gt; Elective credits together with required courses must fulfill the Faculty of Science's:&lt;br&gt;a) &lt;a href="/node/15386" rel="nofollow"&gt;Foundational Requirement&lt;/a&gt;;&lt;br&gt;b) &lt;a href="/node/15386#18467" rel="nofollow"&gt;Laboratory Science Requirement&lt;/a&gt;;&lt;br&gt;c) &lt;a href="/node/15398" rel="nofollow"&gt;Science Breadth Requirement&lt;/a&gt;;&lt;br&gt;d) &lt;a href="/node/15385" rel="nofollow"&gt;Science and Arts Requirements&lt;/a&gt;;&lt;br&gt;e) &lt;a href="/node/15387" rel="nofollow"&gt;Upper-level Requirement&lt;/a&gt;;&lt;br&gt;f) &lt;a href="/node/15405" rel="nofollow"&gt;General Degree Requirements&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;6&lt;/sup&gt; Note that MATH_V 210 may not be offered every year. Students taking MATH_V 210 require an additional credit toward elective requirements.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;7&lt;/sup&gt; Students obtaining 68% or higher in MATH_V 226 are not required to take MATH_V 220.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;8&lt;/sup&gt; May be replaced by MATH_V 419 in fourth year.&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/figure&gt;</t>
+    <t>&lt;p class="degree-note"&gt;&lt;em&gt;Note: The course map on the right represents only a subset of the requirements needed to complete the degree. Please refer to the table below or the &lt;a href = 'https://vancouver.calendar.ubc.ca/faculties-colleges-and-schools/faculty-science/bachelor-science/statistics#:~:text=Honours%20(0051)%3A%20Statistics%20(STAT)' target = '_blank'&gt;UBC Academic Calendar&lt;/a&gt; for complete degree requirements.&lt;/em&gt;&lt;/p&gt;&lt;h3&gt;Honours in Statistics - Degree Requirements&lt;/h3&gt;
+&lt;figure class="responsive-figure-table"&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;First Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SCIE_V 113&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Additional Communication Requirement&lt;sup&gt;1&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 110 (or 103 and 107)&lt;sup&gt;2&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;DSCI_V 100&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 120 or 180 or 184 (or 100 or 102 or 104)&lt;sup&gt;3&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 101 or 103 or 105 (or 121)&lt;sup&gt;4&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;30&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Second Year&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;CPSC_V 210 or MATH_V 210&lt;sup&gt;6&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;4&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 226&lt;sup&gt;7&lt;/sup&gt; or 200&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 220&lt;sup&gt;7&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 223 or 221&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MATH_V 227 or 317&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 200&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V 201&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V/MATH_V 302&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;33&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;strong&gt;Third and Fourth Years&lt;/strong&gt;&lt;/td&gt;&lt;td&gt;&amp;nbsp;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;In third year: STAT_V 305, 306 and MATH_V 303&lt;sup&gt;8&lt;/sup&gt;, 307, 320, 321&lt;/td&gt;&lt;td&gt;18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;In fourth year: STAT_V 404, 460 and 461 and 6 credits chosen from MATH_V 418, 419, 420, 421 and statistics courses numbered 400 or above&lt;/td&gt;&lt;td&gt;15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V courses numbered 300 or above&lt;/td&gt;&lt;td&gt;3&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;STAT_V courses numbered 400 or above&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Additional CPSC_V, DSCI_V, and MATH_V courses numbered 300 or above&lt;/td&gt;&lt;td&gt;6&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Electives&lt;sup&gt;5&lt;/sup&gt;&lt;/td&gt;&lt;td&gt;21&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Total Credits&lt;/td&gt;&lt;td&gt;69&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;em&gt;Total Credits for Degree&lt;/em&gt;&lt;/td&gt;&lt;td&gt;132&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;1&lt;/sup&gt; For a full list of acceptable courses see &lt;a href="https://vancouver.calendar.ubc.ca/faculties-colleges-and-schools/faculty-science/bachelor-science/communication-requirements" target = '_blank' rel="nofollow"&gt;Communication Requirements&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;2&lt;/sup&gt; A 6-credit combination of two courses may substitute for a 4-credit course to satisfy the specified requirement by decreasing the electives in any year by 2 credits.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;3&lt;/sup&gt; MATH_V 100 or 102 or 104 may substitute for any of the specified differential calculus courses listed and elective credits increased by 1. MATH_V 110 may substitute for any of the specified differential calculus courses listed and the elective credits reduced by 2.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;4&lt;/sup&gt; MATH_V 121 may substitute for any of the specified integral calculus courses listed and the elective credits decreased by 1.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;5&lt;/sup&gt; Elective credits together with required courses must fulfill the Faculty of Science's:&lt;br&gt;a) &lt;a href="https://vancouver.calendar.ubc.ca/node/15386" target = '_blank' rel="nofollow"&gt;Foundational Requirement&lt;/a&gt;;&lt;br&gt;b) &lt;a href="https://vancouver.calendar.ubc.ca/node/15386#18467" target = '_blank' rel="nofollow"&gt;Laboratory Science Requirement&lt;/a&gt;;&lt;br&gt;c) &lt;a href="https://vancouver.calendar.ubc.ca/node/15398" target = '_blank' rel="nofollow"&gt;Science Breadth Requirement&lt;/a&gt;;&lt;br&gt;d) &lt;a href="https://vancouver.calendar.ubc.ca/node/15385" target = '_blank' rel="nofollow"&gt;Science and Arts Requirements&lt;/a&gt;;&lt;br&gt;e) &lt;a href="https://vancouver.calendar.ubc.ca/node/15387" target = '_blank' rel="nofollow"&gt;Upper-level Requirement&lt;/a&gt;;&lt;br&gt;f) &lt;a href="https://vancouver.calendar.ubc.ca/node/15405" target = '_blank' rel="nofollow"&gt;General Degree Requirements&lt;/a&gt;.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;6&lt;/sup&gt; Note that MATH_V 210 may not be offered every year. Students taking MATH_V 210 require an additional credit toward elective requirements.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;7&lt;/sup&gt; Students obtaining 68% or higher in MATH_V 226 are not required to take MATH_V 220.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;sup&gt;8&lt;/sup&gt; May be replaced by MATH_V 419 in fourth year.&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/figure&gt;</t>
   </si>
   <si>
     <t>Minor in Statistics</t>
   </si>
   <si>
-    <t>&lt;h3&gt;Minor in Statistics - Requirements&lt;/h3&gt;
+    <t>&lt;p class="degree-note"&gt;&lt;em&gt;Note: The course map on the right represents only a subset of the requirements needed to complete the degree. Please refer to the information below or the &lt;a href = 'https://www.stat.ubc.ca/programs-and-requirements#:~:text=Statistics%20major/minor' target = '_blank'&gt;UBC Academic Calendar&lt;/a&gt; for complete degree requirements.&lt;/em&gt;&lt;/p&gt;&lt;h3&gt;Minor in Statistics - Requirements&lt;/h3&gt;
 &lt;p&gt;Students majoring in another area can minor in Statistics by completing 18 upper level STAT credits (MATH 302 can replace STAT 302).&lt;/p&gt;</t>
   </si>
   <si>
@@ -676,7 +676,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -702,11 +702,6 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -753,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -772,10 +767,13 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2634,6 +2632,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.86"/>
     <col customWidth="1" min="2" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2850,8 +2849,8 @@
         <v>0.0</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13">
@@ -3102,8 +3101,8 @@
         <v>1.0</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -3120,8 +3119,8 @@
         <v>1.0</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -3138,8 +3137,8 @@
         <v>1.0</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -3156,8 +3155,8 @@
         <v>1.0</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -3174,8 +3173,8 @@
         <v>0.0</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -3192,8 +3191,8 @@
         <v>1.0</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -3210,68 +3209,68 @@
         <v>0.0</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1"/>
@@ -4265,25 +4264,25 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4297,19 +4296,19 @@
       <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <f>VLOOKUP(B2,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <f>VLOOKUP(C2,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <f>VLOOKUP(C2,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4331,19 +4330,19 @@
       <c r="C3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <f>VLOOKUP(B3,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <f>VLOOKUP(B3,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <f>VLOOKUP(C3,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <f>VLOOKUP(C3,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4365,19 +4364,19 @@
       <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <f>VLOOKUP(B4,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <f>VLOOKUP(B4,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <f>VLOOKUP(C4,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <f>VLOOKUP(C4,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4399,19 +4398,19 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <f>VLOOKUP(B5,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f>VLOOKUP(B5,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <f>VLOOKUP(C5,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4433,19 +4432,19 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <f>VLOOKUP(B6,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <f>VLOOKUP(C6,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4467,19 +4466,19 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <f>VLOOKUP(B7,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <f>VLOOKUP(B7,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -4501,19 +4500,19 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <f>VLOOKUP(B8,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <f>VLOOKUP(B8,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4535,19 +4534,19 @@
       <c r="C9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <f>VLOOKUP(B9,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <f>VLOOKUP(B9,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <f>VLOOKUP(C9,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <f>VLOOKUP(C9,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4569,19 +4568,19 @@
       <c r="C10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <f>VLOOKUP(B10,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <f>VLOOKUP(B10,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -4603,19 +4602,19 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <f>VLOOKUP(B11,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <f>VLOOKUP(B11,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="9">
         <f>VLOOKUP(C11,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <f>VLOOKUP(C11,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4637,19 +4636,19 @@
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <f>VLOOKUP(B12,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <f>VLOOKUP(B12,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <f>VLOOKUP(C12,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -4671,19 +4670,19 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <f>VLOOKUP(B13,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <f>VLOOKUP(B13,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <f>VLOOKUP(C13,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <f>VLOOKUP(C13,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -4705,19 +4704,19 @@
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <f>VLOOKUP(B14,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <f>VLOOKUP(B14,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -4739,19 +4738,19 @@
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <f>VLOOKUP(B15,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="9">
         <f>VLOOKUP(B15,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="9">
         <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4773,19 +4772,19 @@
       <c r="C16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <f>VLOOKUP(B16,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <f>VLOOKUP(B16,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <f>VLOOKUP(C16,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <f>VLOOKUP(C16,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4807,19 +4806,19 @@
       <c r="C17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <f>VLOOKUP(B17,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <f>VLOOKUP(B17,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="9">
         <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="9">
         <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4841,19 +4840,19 @@
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <f>VLOOKUP(B18,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <f>VLOOKUP(B18,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <f>VLOOKUP(C18,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <f>VLOOKUP(C18,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -4875,19 +4874,19 @@
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <f>VLOOKUP(B19,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="9">
         <f>VLOOKUP(B19,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="9">
         <f>VLOOKUP(C19,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="9">
         <f>VLOOKUP(C19,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -4909,19 +4908,19 @@
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <f>VLOOKUP(B20,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="9">
         <f>VLOOKUP(B20,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="9">
         <f>VLOOKUP(C20,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <f>VLOOKUP(C20,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -4943,19 +4942,19 @@
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <f>VLOOKUP(B21,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="9">
         <f>VLOOKUP(B21,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="9">
         <f>VLOOKUP(C21,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="9">
         <f>VLOOKUP(C21,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -4977,19 +4976,19 @@
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <f>VLOOKUP(B22,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="9">
         <f>VLOOKUP(B22,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="9">
         <f>VLOOKUP(C22,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="9">
         <f>VLOOKUP(C22,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5011,19 +5010,19 @@
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <f>VLOOKUP(B23,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
         <f>VLOOKUP(B23,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="9">
         <f>VLOOKUP(C23,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="9">
         <f>VLOOKUP(C23,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5045,19 +5044,19 @@
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <f>VLOOKUP(B24,courses_program1!A:C,2,0)</f>
         <v>3</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="9">
         <f>VLOOKUP(B24,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9">
         <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="9">
         <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5079,19 +5078,19 @@
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <f>VLOOKUP(B25,courses_program1!A:C,2,0)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="9">
         <f>VLOOKUP(B25,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <f>VLOOKUP(C25,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="9">
         <f>VLOOKUP(C25,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -5113,19 +5112,19 @@
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <f>VLOOKUP(B26,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="9">
         <f>VLOOKUP(B26,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="9">
         <f>VLOOKUP(C26,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="9">
         <f>VLOOKUP(C26,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5147,19 +5146,19 @@
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <f>VLOOKUP(B27,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="9">
         <f>VLOOKUP(B27,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <f>VLOOKUP(C27,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="9">
         <f>VLOOKUP(C27,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -5181,19 +5180,19 @@
       <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <f>VLOOKUP(B28,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="9">
         <f>VLOOKUP(B28,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="9">
         <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -5215,19 +5214,19 @@
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="9">
         <f>VLOOKUP(B29,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="9">
         <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="9">
         <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <f>VLOOKUP(C29,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5249,19 +5248,19 @@
       <c r="C30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <f>VLOOKUP(B30,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="9">
         <f>VLOOKUP(B30,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="9">
         <f>VLOOKUP(C30,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="9">
         <f>VLOOKUP(C30,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5283,19 +5282,19 @@
       <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="9">
         <f>VLOOKUP(B31,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="9">
         <f>VLOOKUP(B31,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="9">
         <f>VLOOKUP(C31,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="9">
         <f>VLOOKUP(C31,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5317,19 +5316,19 @@
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <f>VLOOKUP(B32,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <f>VLOOKUP(B32,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="9">
         <f>VLOOKUP(C32,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="9">
         <f>VLOOKUP(C32,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -5351,19 +5350,19 @@
       <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <f>VLOOKUP(B33,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="9">
         <f>VLOOKUP(B33,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="9">
         <f>VLOOKUP(C33,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <f>VLOOKUP(C33,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5385,19 +5384,19 @@
       <c r="C34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <f>VLOOKUP(B34,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="9">
         <f>VLOOKUP(B34,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="9">
         <f>VLOOKUP(C34,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="9">
         <f>VLOOKUP(C34,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -5419,19 +5418,19 @@
       <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="9">
         <f>VLOOKUP(B35,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="9">
         <f>VLOOKUP(B35,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="9">
         <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5453,19 +5452,19 @@
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="9">
         <f>VLOOKUP(B36,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="9">
         <f>VLOOKUP(B36,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="9">
         <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="9">
         <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -5487,19 +5486,19 @@
       <c r="C37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="9">
         <f>VLOOKUP(B37,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="9">
         <f>VLOOKUP(B37,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="9">
         <f>VLOOKUP(C37,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="9">
         <f>VLOOKUP(C37,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5521,19 +5520,19 @@
       <c r="C38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <f>VLOOKUP(B38,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="9">
         <f>VLOOKUP(B38,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="9">
         <f>VLOOKUP(C38,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="9">
         <f>VLOOKUP(C38,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -5555,19 +5554,19 @@
       <c r="C39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <f>VLOOKUP(B39,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="9">
         <f>VLOOKUP(B39,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="9">
         <f>VLOOKUP(C39,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="9">
         <f>VLOOKUP(C39,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -5589,19 +5588,19 @@
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <f>VLOOKUP(B40,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="9">
         <f>VLOOKUP(B40,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="9">
         <f>VLOOKUP(C40,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="9">
         <f>VLOOKUP(C40,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5623,19 +5622,19 @@
       <c r="C41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <f>VLOOKUP(B41,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="9">
         <f>VLOOKUP(B41,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="9">
         <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="9">
         <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -5657,19 +5656,19 @@
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <f>VLOOKUP(B42,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="9">
         <f>VLOOKUP(B42,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="9">
         <f>VLOOKUP(C42,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="9">
         <f>VLOOKUP(C42,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -5691,19 +5690,19 @@
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <f>VLOOKUP(B43,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="9">
         <f>VLOOKUP(B43,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="9">
         <f>VLOOKUP(C43,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="9">
         <f>VLOOKUP(C43,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5725,19 +5724,19 @@
       <c r="C44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <f>VLOOKUP(B44,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="9">
         <f>VLOOKUP(B44,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="9">
         <f>VLOOKUP(C44,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="9">
         <f>VLOOKUP(C44,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5759,19 +5758,19 @@
       <c r="C45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <f>VLOOKUP(B45,courses_program1!A:C,2,0)</f>
         <v>-6</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="9">
         <f>VLOOKUP(B45,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="9">
         <f>VLOOKUP(C45,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="9">
         <f>VLOOKUP(C45,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5793,19 +5792,19 @@
       <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <f>VLOOKUP(B46,courses_program1!A:C,2,0)</f>
         <v>6</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="9">
         <f>VLOOKUP(B46,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="9">
         <f>VLOOKUP(C46,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <f>VLOOKUP(C46,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5827,19 +5826,19 @@
       <c r="C47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <f>VLOOKUP(B47,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="9">
         <f>VLOOKUP(B47,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="9">
         <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
         <v>-3</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="9">
         <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -5861,19 +5860,19 @@
       <c r="C48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <f>VLOOKUP(B48,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="9">
         <f>VLOOKUP(B48,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="9">
         <f>VLOOKUP(C48,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="9">
         <f>VLOOKUP(C48,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -5895,19 +5894,19 @@
       <c r="C49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <f>VLOOKUP(B49,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="9">
         <f>VLOOKUP(B49,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="9">
         <f>VLOOKUP(C49,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="9">
         <f>VLOOKUP(C49,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -5929,19 +5928,19 @@
       <c r="C50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="9">
         <f>VLOOKUP(B50,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="9">
         <f>VLOOKUP(B50,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="9">
         <f>VLOOKUP(C50,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="9">
         <f>VLOOKUP(C50,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -5963,19 +5962,19 @@
       <c r="C51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="9">
         <f>VLOOKUP(B51,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="9">
         <f>VLOOKUP(B51,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="9">
         <f>VLOOKUP(C51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="9">
         <f>VLOOKUP(C51,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -5997,19 +5996,19 @@
       <c r="C52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="9">
         <f>VLOOKUP(B52,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="9">
         <f>VLOOKUP(B52,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="9">
         <f>VLOOKUP(C52,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="9">
         <f>VLOOKUP(C52,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -6031,19 +6030,19 @@
       <c r="C53" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <f>VLOOKUP(B53,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="9">
         <f>VLOOKUP(B53,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="9">
         <f>VLOOKUP(C53,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="9">
         <f>VLOOKUP(C53,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6065,19 +6064,19 @@
       <c r="C54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="9">
         <f>VLOOKUP(B54,courses_program1!A:C,2,0)</f>
         <v>-3</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="9">
         <f>VLOOKUP(B54,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="9">
         <f>VLOOKUP(C54,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="9">
         <f>VLOOKUP(C54,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -6099,19 +6098,19 @@
       <c r="C55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <f>VLOOKUP(B55,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="9">
         <f>VLOOKUP(B55,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="9">
         <f>VLOOKUP(C55,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="9">
         <f>VLOOKUP(C55,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -6124,119 +6123,119 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="11"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1"/>
@@ -7184,6 +7183,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.86"/>
     <col customWidth="1" min="2" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7400,8 +7400,8 @@
         <v>0.0</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13">
@@ -7652,8 +7652,8 @@
         <v>1.0</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -7670,8 +7670,8 @@
         <v>1.0</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -7688,8 +7688,8 @@
         <v>1.0</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -7706,8 +7706,8 @@
         <v>1.0</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -7724,8 +7724,8 @@
         <v>0.0</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -7742,8 +7742,8 @@
         <v>1.0</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -7760,68 +7760,68 @@
         <v>0.0</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1"/>
@@ -8815,25 +8815,25 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>211</v>
       </c>
     </row>
@@ -8847,19 +8847,19 @@
       <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <f>VLOOKUP(B2,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <f>VLOOKUP(C2,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <f>VLOOKUP(C2,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -8881,19 +8881,19 @@
       <c r="C3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <f>VLOOKUP(B3,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <f>VLOOKUP(B3,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <f>VLOOKUP(C3,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <f>VLOOKUP(C3,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -8915,19 +8915,19 @@
       <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <f>VLOOKUP(B4,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <f>VLOOKUP(B4,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <f>VLOOKUP(C4,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <f>VLOOKUP(C4,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -8949,19 +8949,19 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <f>VLOOKUP(B5,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f>VLOOKUP(B5,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <f>VLOOKUP(C5,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -8983,19 +8983,19 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <f>VLOOKUP(B6,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <f>VLOOKUP(C6,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -9017,19 +9017,19 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <f>VLOOKUP(B7,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <f>VLOOKUP(B7,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -9051,19 +9051,19 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <f>VLOOKUP(B8,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <f>VLOOKUP(B8,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -9085,19 +9085,19 @@
       <c r="C9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <f>VLOOKUP(B9,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <f>VLOOKUP(B9,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <f>VLOOKUP(C9,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <f>VLOOKUP(C9,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -9119,19 +9119,19 @@
       <c r="C10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <f>VLOOKUP(B10,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <f>VLOOKUP(B10,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -9153,19 +9153,19 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <f>VLOOKUP(B11,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <f>VLOOKUP(B11,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="9">
         <f>VLOOKUP(C11,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <f>VLOOKUP(C11,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -9187,19 +9187,19 @@
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <f>VLOOKUP(B12,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <f>VLOOKUP(B12,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <f>VLOOKUP(C12,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -9221,19 +9221,19 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <f>VLOOKUP(B13,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <f>VLOOKUP(B13,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <f>VLOOKUP(C13,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <f>VLOOKUP(C13,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -9255,19 +9255,19 @@
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <f>VLOOKUP(B14,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <f>VLOOKUP(B14,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -9289,19 +9289,19 @@
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <f>VLOOKUP(B15,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="9">
         <f>VLOOKUP(B15,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="9">
         <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -9323,19 +9323,19 @@
       <c r="C16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <f>VLOOKUP(B16,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <f>VLOOKUP(B16,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <f>VLOOKUP(C16,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <f>VLOOKUP(C16,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -9357,19 +9357,19 @@
       <c r="C17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <f>VLOOKUP(B17,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <f>VLOOKUP(B17,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="9">
         <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="9">
         <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -9391,19 +9391,19 @@
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <f>VLOOKUP(B18,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <f>VLOOKUP(B18,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <f>VLOOKUP(C18,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <f>VLOOKUP(C18,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -9425,19 +9425,19 @@
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <f>VLOOKUP(B19,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="9">
         <f>VLOOKUP(B19,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="9">
         <f>VLOOKUP(C19,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="9">
         <f>VLOOKUP(C19,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -9459,19 +9459,19 @@
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <f>VLOOKUP(B20,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="9">
         <f>VLOOKUP(B20,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="9">
         <f>VLOOKUP(C20,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <f>VLOOKUP(C20,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -9493,19 +9493,19 @@
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <f>VLOOKUP(B21,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="9">
         <f>VLOOKUP(B21,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="9">
         <f>VLOOKUP(C21,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="9">
         <f>VLOOKUP(C21,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -9527,19 +9527,19 @@
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <f>VLOOKUP(B22,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="9">
         <f>VLOOKUP(B22,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="9">
         <f>VLOOKUP(C22,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="9">
         <f>VLOOKUP(C22,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -9561,19 +9561,19 @@
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <f>VLOOKUP(B23,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
         <f>VLOOKUP(B23,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="9">
         <f>VLOOKUP(C23,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="9">
         <f>VLOOKUP(C23,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -9595,19 +9595,19 @@
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <f>VLOOKUP(B24,courses_program1!A:C,2,0)</f>
         <v>3</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="9">
         <f>VLOOKUP(B24,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9">
         <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="9">
         <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -9629,19 +9629,19 @@
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <f>VLOOKUP(B25,courses_program1!A:C,2,0)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="9">
         <f>VLOOKUP(B25,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <f>VLOOKUP(C25,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="9">
         <f>VLOOKUP(C25,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -9663,19 +9663,19 @@
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <f>VLOOKUP(B26,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="9">
         <f>VLOOKUP(B26,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="9">
         <f>VLOOKUP(C26,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="9">
         <f>VLOOKUP(C26,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -9697,19 +9697,19 @@
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <f>VLOOKUP(B27,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="9">
         <f>VLOOKUP(B27,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <f>VLOOKUP(C27,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="9">
         <f>VLOOKUP(C27,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -9731,19 +9731,19 @@
       <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <f>VLOOKUP(B28,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="9">
         <f>VLOOKUP(B28,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="9">
         <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -9765,19 +9765,19 @@
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="9">
         <f>VLOOKUP(B29,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="9">
         <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="9">
         <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <f>VLOOKUP(C29,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -9799,19 +9799,19 @@
       <c r="C30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <f>VLOOKUP(B30,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="9">
         <f>VLOOKUP(B30,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="9">
         <f>VLOOKUP(C30,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="9">
         <f>VLOOKUP(C30,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -9833,19 +9833,19 @@
       <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="9">
         <f>VLOOKUP(B31,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="9">
         <f>VLOOKUP(B31,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="9">
         <f>VLOOKUP(C31,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="9">
         <f>VLOOKUP(C31,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -9867,19 +9867,19 @@
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <f>VLOOKUP(B32,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <f>VLOOKUP(B32,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="9">
         <f>VLOOKUP(C32,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="9">
         <f>VLOOKUP(C32,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -9901,19 +9901,19 @@
       <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <f>VLOOKUP(B33,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="9">
         <f>VLOOKUP(B33,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="9">
         <f>VLOOKUP(C33,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <f>VLOOKUP(C33,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -9935,19 +9935,19 @@
       <c r="C34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <f>VLOOKUP(B34,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="9">
         <f>VLOOKUP(B34,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="9">
         <f>VLOOKUP(C34,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="9">
         <f>VLOOKUP(C34,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -9969,19 +9969,19 @@
       <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="9">
         <f>VLOOKUP(B35,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="9">
         <f>VLOOKUP(B35,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="9">
         <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -10003,19 +10003,19 @@
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="9">
         <f>VLOOKUP(B36,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="9">
         <f>VLOOKUP(B36,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="9">
         <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="9">
         <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -10037,19 +10037,19 @@
       <c r="C37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="9">
         <f>VLOOKUP(B37,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="9">
         <f>VLOOKUP(B37,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="9">
         <f>VLOOKUP(C37,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="9">
         <f>VLOOKUP(C37,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10071,19 +10071,19 @@
       <c r="C38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <f>VLOOKUP(B38,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="9">
         <f>VLOOKUP(B38,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="9">
         <f>VLOOKUP(C38,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="9">
         <f>VLOOKUP(C38,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -10105,19 +10105,19 @@
       <c r="C39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <f>VLOOKUP(B39,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="9">
         <f>VLOOKUP(B39,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="9">
         <f>VLOOKUP(C39,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="9">
         <f>VLOOKUP(C39,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -10139,19 +10139,19 @@
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <f>VLOOKUP(B40,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="9">
         <f>VLOOKUP(B40,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="9">
         <f>VLOOKUP(C40,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="9">
         <f>VLOOKUP(C40,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10173,19 +10173,19 @@
       <c r="C41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <f>VLOOKUP(B41,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="9">
         <f>VLOOKUP(B41,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="9">
         <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="9">
         <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -10207,19 +10207,19 @@
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <f>VLOOKUP(B42,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="9">
         <f>VLOOKUP(B42,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="9">
         <f>VLOOKUP(C42,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="9">
         <f>VLOOKUP(C42,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -10241,19 +10241,19 @@
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <f>VLOOKUP(B43,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="9">
         <f>VLOOKUP(B43,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="9">
         <f>VLOOKUP(C43,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="9">
         <f>VLOOKUP(C43,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -10275,19 +10275,19 @@
       <c r="C44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <f>VLOOKUP(B44,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="9">
         <f>VLOOKUP(B44,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="9">
         <f>VLOOKUP(C44,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="9">
         <f>VLOOKUP(C44,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -10309,19 +10309,19 @@
       <c r="C45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <f>VLOOKUP(B45,courses_program1!A:C,2,0)</f>
         <v>-6</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="9">
         <f>VLOOKUP(B45,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="9">
         <f>VLOOKUP(C45,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="9">
         <f>VLOOKUP(C45,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -10343,19 +10343,19 @@
       <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <f>VLOOKUP(B46,courses_program1!A:C,2,0)</f>
         <v>6</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="9">
         <f>VLOOKUP(B46,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="9">
         <f>VLOOKUP(C46,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <f>VLOOKUP(C46,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -10377,19 +10377,19 @@
       <c r="C47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <f>VLOOKUP(B47,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="9">
         <f>VLOOKUP(B47,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="9">
         <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
         <v>-3</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="9">
         <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -10411,19 +10411,19 @@
       <c r="C48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <f>VLOOKUP(B48,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="9">
         <f>VLOOKUP(B48,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="9">
         <f>VLOOKUP(C48,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="9">
         <f>VLOOKUP(C48,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -10445,19 +10445,19 @@
       <c r="C49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <f>VLOOKUP(B49,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="9">
         <f>VLOOKUP(B49,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="9">
         <f>VLOOKUP(C49,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="9">
         <f>VLOOKUP(C49,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10479,19 +10479,19 @@
       <c r="C50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="9">
         <f>VLOOKUP(B50,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="9">
         <f>VLOOKUP(B50,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="9">
         <f>VLOOKUP(C50,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="9">
         <f>VLOOKUP(C50,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -10513,19 +10513,19 @@
       <c r="C51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="9">
         <f>VLOOKUP(B51,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="9">
         <f>VLOOKUP(B51,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="9">
         <f>VLOOKUP(C51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="9">
         <f>VLOOKUP(C51,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10547,19 +10547,19 @@
       <c r="C52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="9">
         <f>VLOOKUP(B52,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="9">
         <f>VLOOKUP(B52,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="9">
         <f>VLOOKUP(C52,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="9">
         <f>VLOOKUP(C52,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -10581,19 +10581,19 @@
       <c r="C53" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <f>VLOOKUP(B53,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="9">
         <f>VLOOKUP(B53,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="9">
         <f>VLOOKUP(C53,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="9">
         <f>VLOOKUP(C53,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10615,19 +10615,19 @@
       <c r="C54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="9">
         <f>VLOOKUP(B54,courses_program1!A:C,2,0)</f>
         <v>-3</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="9">
         <f>VLOOKUP(B54,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="9">
         <f>VLOOKUP(C54,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="9">
         <f>VLOOKUP(C54,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -10649,19 +10649,19 @@
       <c r="C55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <f>VLOOKUP(B55,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="9">
         <f>VLOOKUP(B55,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="9">
         <f>VLOOKUP(C55,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="9">
         <f>VLOOKUP(C55,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -10674,119 +10674,119 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="11"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1"/>
@@ -11734,6 +11734,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.86"/>
     <col customWidth="1" min="2" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11950,8 +11951,8 @@
         <v>1.0</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="K12" s="5"/>
     </row>
     <row r="13">
@@ -12202,8 +12203,8 @@
         <v>0.0</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -12220,8 +12221,8 @@
         <v>0.0</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -12238,8 +12239,8 @@
         <v>0.0</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -12256,8 +12257,8 @@
         <v>0.0</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -12274,8 +12275,8 @@
         <v>0.0</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -12292,8 +12293,8 @@
         <v>0.0</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
       <c r="K31" s="5"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -12310,68 +12311,68 @@
         <v>0.0</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="4"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="4"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="4"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="4"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="4"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="4"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="4"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="4"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="4"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" ht="15.75" customHeight="1"/>
@@ -13365,25 +13366,25 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>211</v>
       </c>
     </row>
@@ -13397,19 +13398,19 @@
       <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <f>VLOOKUP(B2,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <f>VLOOKUP(C2,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <f>VLOOKUP(C2,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -13431,19 +13432,19 @@
       <c r="C3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <f>VLOOKUP(B3,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <f>VLOOKUP(B3,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <f>VLOOKUP(C3,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <f>VLOOKUP(C3,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -13465,19 +13466,19 @@
       <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <f>VLOOKUP(B4,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <f>VLOOKUP(B4,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <f>VLOOKUP(C4,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <f>VLOOKUP(C4,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -13499,19 +13500,19 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <f>VLOOKUP(B5,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f>VLOOKUP(B5,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <f>VLOOKUP(C5,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -13533,19 +13534,19 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <f>VLOOKUP(B6,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <f>VLOOKUP(C6,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -13567,19 +13568,19 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <f>VLOOKUP(B7,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <f>VLOOKUP(B7,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -13601,19 +13602,19 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <f>VLOOKUP(B8,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <f>VLOOKUP(B8,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -13635,19 +13636,19 @@
       <c r="C9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <f>VLOOKUP(B9,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <f>VLOOKUP(B9,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <f>VLOOKUP(C9,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <f>VLOOKUP(C9,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -13669,19 +13670,19 @@
       <c r="C10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <f>VLOOKUP(B10,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <f>VLOOKUP(B10,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -13703,19 +13704,19 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <f>VLOOKUP(B11,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <f>VLOOKUP(B11,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="9">
         <f>VLOOKUP(C11,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <f>VLOOKUP(C11,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -13737,19 +13738,19 @@
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <f>VLOOKUP(B12,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <f>VLOOKUP(B12,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <f>VLOOKUP(C12,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -13771,19 +13772,19 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <f>VLOOKUP(B13,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <f>VLOOKUP(B13,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <f>VLOOKUP(C13,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <f>VLOOKUP(C13,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -13805,19 +13806,19 @@
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <f>VLOOKUP(B14,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <f>VLOOKUP(B14,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -13839,19 +13840,19 @@
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <f>VLOOKUP(B15,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="9">
         <f>VLOOKUP(B15,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="9">
         <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -13873,19 +13874,19 @@
       <c r="C16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <f>VLOOKUP(B16,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <f>VLOOKUP(B16,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <f>VLOOKUP(C16,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <f>VLOOKUP(C16,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -13907,19 +13908,19 @@
       <c r="C17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <f>VLOOKUP(B17,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <f>VLOOKUP(B17,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="9">
         <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="9">
         <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -13941,19 +13942,19 @@
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <f>VLOOKUP(B18,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <f>VLOOKUP(B18,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <f>VLOOKUP(C18,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <f>VLOOKUP(C18,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -13975,19 +13976,19 @@
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <f>VLOOKUP(B19,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="9">
         <f>VLOOKUP(B19,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="9">
         <f>VLOOKUP(C19,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="9">
         <f>VLOOKUP(C19,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -14009,19 +14010,19 @@
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <f>VLOOKUP(B20,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="9">
         <f>VLOOKUP(B20,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="9">
         <f>VLOOKUP(C20,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <f>VLOOKUP(C20,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -14043,19 +14044,19 @@
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <f>VLOOKUP(B21,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="9">
         <f>VLOOKUP(B21,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="9">
         <f>VLOOKUP(C21,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="9">
         <f>VLOOKUP(C21,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -14077,19 +14078,19 @@
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <f>VLOOKUP(B22,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="9">
         <f>VLOOKUP(B22,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="9">
         <f>VLOOKUP(C22,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="9">
         <f>VLOOKUP(C22,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -14111,19 +14112,19 @@
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <f>VLOOKUP(B23,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
         <f>VLOOKUP(B23,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="9">
         <f>VLOOKUP(C23,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="9">
         <f>VLOOKUP(C23,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -14145,19 +14146,19 @@
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <f>VLOOKUP(B24,courses_program1!A:C,2,0)</f>
         <v>3</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="9">
         <f>VLOOKUP(B24,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9">
         <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="9">
         <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -14179,19 +14180,19 @@
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <f>VLOOKUP(B25,courses_program1!A:C,2,0)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="9">
         <f>VLOOKUP(B25,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <f>VLOOKUP(C25,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="9">
         <f>VLOOKUP(C25,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -14213,19 +14214,19 @@
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <f>VLOOKUP(B26,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="9">
         <f>VLOOKUP(B26,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="9">
         <f>VLOOKUP(C26,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="9">
         <f>VLOOKUP(C26,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -14247,19 +14248,19 @@
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <f>VLOOKUP(B27,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="9">
         <f>VLOOKUP(B27,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <f>VLOOKUP(C27,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="9">
         <f>VLOOKUP(C27,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -14281,19 +14282,19 @@
       <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <f>VLOOKUP(B28,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="9">
         <f>VLOOKUP(B28,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="9">
         <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -14315,19 +14316,19 @@
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="9">
         <f>VLOOKUP(B29,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="9">
         <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="9">
         <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <f>VLOOKUP(C29,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -14349,19 +14350,19 @@
       <c r="C30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <f>VLOOKUP(B30,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="9">
         <f>VLOOKUP(B30,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="9">
         <f>VLOOKUP(C30,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="9">
         <f>VLOOKUP(C30,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -14383,19 +14384,19 @@
       <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="9">
         <f>VLOOKUP(B31,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="9">
         <f>VLOOKUP(B31,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="9">
         <f>VLOOKUP(C31,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="9">
         <f>VLOOKUP(C31,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -14417,19 +14418,19 @@
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <f>VLOOKUP(B32,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <f>VLOOKUP(B32,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="9">
         <f>VLOOKUP(C32,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="9">
         <f>VLOOKUP(C32,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -14451,19 +14452,19 @@
       <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <f>VLOOKUP(B33,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="9">
         <f>VLOOKUP(B33,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="9">
         <f>VLOOKUP(C33,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <f>VLOOKUP(C33,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -14485,19 +14486,19 @@
       <c r="C34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <f>VLOOKUP(B34,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="9">
         <f>VLOOKUP(B34,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="9">
         <f>VLOOKUP(C34,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="9">
         <f>VLOOKUP(C34,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -14519,19 +14520,19 @@
       <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="9">
         <f>VLOOKUP(B35,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="9">
         <f>VLOOKUP(B35,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="9">
         <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -14553,19 +14554,19 @@
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="9">
         <f>VLOOKUP(B36,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="9">
         <f>VLOOKUP(B36,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="9">
         <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="9">
         <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -14587,19 +14588,19 @@
       <c r="C37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="9">
         <f>VLOOKUP(B37,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="9">
         <f>VLOOKUP(B37,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="9">
         <f>VLOOKUP(C37,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="9">
         <f>VLOOKUP(C37,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -14621,19 +14622,19 @@
       <c r="C38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <f>VLOOKUP(B38,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="9">
         <f>VLOOKUP(B38,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="9">
         <f>VLOOKUP(C38,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="9">
         <f>VLOOKUP(C38,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -14655,19 +14656,19 @@
       <c r="C39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <f>VLOOKUP(B39,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="9">
         <f>VLOOKUP(B39,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="9">
         <f>VLOOKUP(C39,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="9">
         <f>VLOOKUP(C39,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -14689,19 +14690,19 @@
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <f>VLOOKUP(B40,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="9">
         <f>VLOOKUP(B40,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="9">
         <f>VLOOKUP(C40,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="9">
         <f>VLOOKUP(C40,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -14723,19 +14724,19 @@
       <c r="C41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <f>VLOOKUP(B41,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="9">
         <f>VLOOKUP(B41,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="9">
         <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="9">
         <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -14757,19 +14758,19 @@
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <f>VLOOKUP(B42,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="9">
         <f>VLOOKUP(B42,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="9">
         <f>VLOOKUP(C42,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="9">
         <f>VLOOKUP(C42,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -14791,19 +14792,19 @@
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <f>VLOOKUP(B43,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="9">
         <f>VLOOKUP(B43,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="9">
         <f>VLOOKUP(C43,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="9">
         <f>VLOOKUP(C43,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -14825,19 +14826,19 @@
       <c r="C44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <f>VLOOKUP(B44,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="9">
         <f>VLOOKUP(B44,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="9">
         <f>VLOOKUP(C44,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="9">
         <f>VLOOKUP(C44,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -14859,19 +14860,19 @@
       <c r="C45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <f>VLOOKUP(B45,courses_program1!A:C,2,0)</f>
         <v>-6</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="9">
         <f>VLOOKUP(B45,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="9">
         <f>VLOOKUP(C45,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="9">
         <f>VLOOKUP(C45,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -14893,19 +14894,19 @@
       <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <f>VLOOKUP(B46,courses_program1!A:C,2,0)</f>
         <v>6</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="9">
         <f>VLOOKUP(B46,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="9">
         <f>VLOOKUP(C46,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <f>VLOOKUP(C46,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -14927,19 +14928,19 @@
       <c r="C47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <f>VLOOKUP(B47,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="9">
         <f>VLOOKUP(B47,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="9">
         <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
         <v>-3</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="9">
         <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -14961,19 +14962,19 @@
       <c r="C48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <f>VLOOKUP(B48,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="9">
         <f>VLOOKUP(B48,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="9">
         <f>VLOOKUP(C48,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="9">
         <f>VLOOKUP(C48,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -14995,19 +14996,19 @@
       <c r="C49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <f>VLOOKUP(B49,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="9">
         <f>VLOOKUP(B49,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="9">
         <f>VLOOKUP(C49,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="9">
         <f>VLOOKUP(C49,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -15029,19 +15030,19 @@
       <c r="C50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="9">
         <f>VLOOKUP(B50,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="9">
         <f>VLOOKUP(B50,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="9">
         <f>VLOOKUP(C50,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="9">
         <f>VLOOKUP(C50,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -15063,19 +15064,19 @@
       <c r="C51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="9">
         <f>VLOOKUP(B51,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="9">
         <f>VLOOKUP(B51,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="9">
         <f>VLOOKUP(C51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="9">
         <f>VLOOKUP(C51,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -15097,19 +15098,19 @@
       <c r="C52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="9">
         <f>VLOOKUP(B52,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="9">
         <f>VLOOKUP(B52,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="9">
         <f>VLOOKUP(C52,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="9">
         <f>VLOOKUP(C52,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -15131,19 +15132,19 @@
       <c r="C53" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <f>VLOOKUP(B53,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="9">
         <f>VLOOKUP(B53,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="9">
         <f>VLOOKUP(C53,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="9">
         <f>VLOOKUP(C53,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -15165,19 +15166,19 @@
       <c r="C54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="9">
         <f>VLOOKUP(B54,courses_program1!A:C,2,0)</f>
         <v>-3</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="9">
         <f>VLOOKUP(B54,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="9">
         <f>VLOOKUP(C54,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="9">
         <f>VLOOKUP(C54,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -15199,19 +15200,19 @@
       <c r="C55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <f>VLOOKUP(B55,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="9">
         <f>VLOOKUP(B55,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="9">
         <f>VLOOKUP(C55,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="9">
         <f>VLOOKUP(C55,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -15224,119 +15225,119 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="11"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1"/>
@@ -23058,7 +23059,7 @@
       <c r="B2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>196</v>
       </c>
       <c r="D2" s="6"/>
@@ -23090,7 +23091,7 @@
       <c r="B3" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>198</v>
       </c>
       <c r="D3" s="6"/>
@@ -23122,7 +23123,7 @@
       <c r="B4" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D4" s="6"/>
@@ -23154,7 +23155,7 @@
       <c r="B5" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="6"/>
@@ -23208,7 +23209,7 @@
     <row r="7">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -29569,6 +29570,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.29"/>
     <col customWidth="1" min="2" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -30020,44 +30022,44 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
     </row>
     <row r="43" ht="15.75" customHeight="1"/>
     <row r="44" ht="15.75" customHeight="1"/>
@@ -31050,25 +31052,25 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>211</v>
       </c>
     </row>
@@ -31082,19 +31084,19 @@
       <c r="C2" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="9">
         <f>VLOOKUP(B2,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <f>VLOOKUP(B2,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="9">
         <f>VLOOKUP(C2,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="9">
         <f>VLOOKUP(C2,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -31105,8 +31107,8 @@
         <f t="shared" ref="I2:I55" si="1">CONCAT(B2, C2)</f>
         <v>S200M100</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" s="2">
@@ -31118,19 +31120,19 @@
       <c r="C3" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <f>VLOOKUP(B3,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <f>VLOOKUP(B3,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="9">
         <f>VLOOKUP(C3,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="9">
         <f>VLOOKUP(C3,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -31141,8 +31143,8 @@
         <f t="shared" si="1"/>
         <v>S201D100</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -31154,19 +31156,19 @@
       <c r="C4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <f>VLOOKUP(B4,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <f>VLOOKUP(B4,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="9">
         <f>VLOOKUP(C4,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="9">
         <f>VLOOKUP(C4,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31177,8 +31179,8 @@
         <f t="shared" si="1"/>
         <v>S251M101</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -31190,19 +31192,19 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <f>VLOOKUP(B5,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f>VLOOKUP(B5,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <f>VLOOKUP(C5,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <f>VLOOKUP(C5,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31213,8 +31215,8 @@
         <f t="shared" si="1"/>
         <v>S300S200</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -31226,19 +31228,19 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <f>VLOOKUP(B6,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <f>VLOOKUP(B6,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <f>VLOOKUP(C6,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="9">
         <f>VLOOKUP(C6,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -31249,8 +31251,8 @@
         <f t="shared" si="1"/>
         <v>S300S203</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -31262,19 +31264,19 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <f>VLOOKUP(B7,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <f>VLOOKUP(B7,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <f>VLOOKUP(C7,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="9">
         <f>VLOOKUP(C7,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -31285,8 +31287,8 @@
         <f t="shared" si="1"/>
         <v>S300S251</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -31298,19 +31300,19 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <f>VLOOKUP(B8,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <f>VLOOKUP(B8,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="9">
         <f>VLOOKUP(C8,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="9">
         <f>VLOOKUP(C8,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31321,8 +31323,8 @@
         <f t="shared" si="1"/>
         <v>S301S201</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -31334,19 +31336,19 @@
       <c r="C9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <f>VLOOKUP(B9,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <f>VLOOKUP(B9,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="9">
         <f>VLOOKUP(C9,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="9">
         <f>VLOOKUP(C9,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -31357,8 +31359,8 @@
         <f t="shared" si="1"/>
         <v>S301M100</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -31370,19 +31372,19 @@
       <c r="C10" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="9">
         <f>VLOOKUP(B10,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <f>VLOOKUP(B10,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="9">
         <f>VLOOKUP(C10,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="9">
         <f>VLOOKUP(C10,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -31393,8 +31395,8 @@
         <f t="shared" si="1"/>
         <v>S302M200</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -31406,19 +31408,19 @@
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="9">
         <f>VLOOKUP(B11,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="9">
         <f>VLOOKUP(B11,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="9">
         <f>VLOOKUP(C11,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="9">
         <f>VLOOKUP(C11,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31429,8 +31431,8 @@
         <f t="shared" si="1"/>
         <v>S305S200</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -31442,19 +31444,19 @@
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="9">
         <f>VLOOKUP(B12,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="9">
         <f>VLOOKUP(B12,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="9">
         <f>VLOOKUP(C12,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="9">
         <f>VLOOKUP(C12,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -31465,8 +31467,8 @@
         <f t="shared" si="1"/>
         <v>S305S203</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -31478,19 +31480,19 @@
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <f>VLOOKUP(B13,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="9">
         <f>VLOOKUP(B13,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="9">
         <f>VLOOKUP(C13,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="9">
         <f>VLOOKUP(C13,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -31501,8 +31503,8 @@
         <f t="shared" si="1"/>
         <v>S305S251</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -31514,19 +31516,19 @@
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <f>VLOOKUP(B14,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <f>VLOOKUP(B14,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="9">
         <f>VLOOKUP(C14,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="9">
         <f>VLOOKUP(C14,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -31537,8 +31539,8 @@
         <f t="shared" si="1"/>
         <v>S305S302</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -31550,19 +31552,19 @@
       <c r="C15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <f>VLOOKUP(B15,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="9">
         <f>VLOOKUP(B15,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="9">
         <f>VLOOKUP(C15,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="9">
         <f>VLOOKUP(C15,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31573,8 +31575,8 @@
         <f t="shared" si="1"/>
         <v>S305S201</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -31586,19 +31588,19 @@
       <c r="C16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <f>VLOOKUP(B16,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <f>VLOOKUP(B16,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <f>VLOOKUP(C16,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <f>VLOOKUP(C16,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31609,8 +31611,8 @@
         <f t="shared" si="1"/>
         <v>S305D200</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="2">
@@ -31622,19 +31624,19 @@
       <c r="C17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <f>VLOOKUP(B17,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="9">
         <f>VLOOKUP(B17,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="9">
         <f>VLOOKUP(C17,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="9">
         <f>VLOOKUP(C17,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31645,8 +31647,8 @@
         <f t="shared" si="1"/>
         <v>S306M221</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="2">
@@ -31658,19 +31660,19 @@
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <f>VLOOKUP(B18,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="9">
         <f>VLOOKUP(B18,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="9">
         <f>VLOOKUP(C18,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="9">
         <f>VLOOKUP(C18,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31681,8 +31683,8 @@
         <f t="shared" si="1"/>
         <v>S306S200</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="2">
@@ -31694,19 +31696,19 @@
       <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <f>VLOOKUP(B19,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="9">
         <f>VLOOKUP(B19,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="9">
         <f>VLOOKUP(C19,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="9">
         <f>VLOOKUP(C19,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -31717,8 +31719,8 @@
         <f t="shared" si="1"/>
         <v>S306S251</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="2">
@@ -31730,19 +31732,19 @@
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <f>VLOOKUP(B20,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="9">
         <f>VLOOKUP(B20,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="9">
         <f>VLOOKUP(C20,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="9">
         <f>VLOOKUP(C20,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -31753,8 +31755,8 @@
         <f t="shared" si="1"/>
         <v>S306S300</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
@@ -31766,19 +31768,19 @@
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="9">
         <f>VLOOKUP(B21,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="9">
         <f>VLOOKUP(B21,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="9">
         <f>VLOOKUP(C21,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="9">
         <f>VLOOKUP(C21,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -31789,8 +31791,8 @@
         <f t="shared" si="1"/>
         <v>S306S302</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2">
@@ -31802,19 +31804,19 @@
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="9">
         <f>VLOOKUP(B22,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="9">
         <f>VLOOKUP(B22,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="9">
         <f>VLOOKUP(C22,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="9">
         <f>VLOOKUP(C22,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -31825,8 +31827,8 @@
         <f t="shared" si="1"/>
         <v>S307S306</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2">
@@ -31838,19 +31840,19 @@
       <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="9">
         <f>VLOOKUP(B23,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="9">
         <f>VLOOKUP(B23,courses_program1!A:C,3,0)</f>
         <v>15</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="9">
         <f>VLOOKUP(C23,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="9">
         <f>VLOOKUP(C23,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -31861,8 +31863,8 @@
         <f t="shared" si="1"/>
         <v>S321S305</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2">
@@ -31874,19 +31876,19 @@
       <c r="C24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="9">
         <f>VLOOKUP(B24,courses_program1!A:C,2,0)</f>
         <v>3</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="9">
         <f>VLOOKUP(B24,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9">
         <f>VLOOKUP(C24,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="9">
         <f>VLOOKUP(C24,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31897,8 +31899,8 @@
         <f t="shared" si="1"/>
         <v>S335S200</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2">
@@ -31910,19 +31912,19 @@
       <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="9">
         <f>VLOOKUP(B25,courses_program1!A:C,2,0)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="9">
         <f>VLOOKUP(B25,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <f>VLOOKUP(C25,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="9">
         <f>VLOOKUP(C25,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -31933,8 +31935,8 @@
         <f t="shared" si="1"/>
         <v>S335S251</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2">
@@ -31946,19 +31948,19 @@
       <c r="C26" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="9">
         <f>VLOOKUP(B26,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="9">
         <f>VLOOKUP(B26,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="9">
         <f>VLOOKUP(C26,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="9">
         <f>VLOOKUP(C26,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -31969,8 +31971,8 @@
         <f t="shared" si="1"/>
         <v>S344S200</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2">
@@ -31982,19 +31984,19 @@
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="9">
         <f>VLOOKUP(B27,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="9">
         <f>VLOOKUP(B27,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="9">
         <f>VLOOKUP(C27,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="9">
         <f>VLOOKUP(C27,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -32005,8 +32007,8 @@
         <f t="shared" si="1"/>
         <v>S344S251</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2">
@@ -32018,19 +32020,19 @@
       <c r="C28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="9">
         <f>VLOOKUP(B28,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="9">
         <f>VLOOKUP(B28,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="9">
         <f>VLOOKUP(C28,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="9">
         <f>VLOOKUP(C28,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -32041,8 +32043,8 @@
         <f t="shared" si="1"/>
         <v>S344S302</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2">
@@ -32054,19 +32056,19 @@
       <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="9">
         <f>VLOOKUP(B29,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="9">
         <f>VLOOKUP(B29,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="9">
         <f>VLOOKUP(C29,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="9">
         <f>VLOOKUP(C29,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -32077,8 +32079,8 @@
         <f t="shared" si="1"/>
         <v>S404S305</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2">
@@ -32090,19 +32092,19 @@
       <c r="C30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="9">
         <f>VLOOKUP(B30,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="9">
         <f>VLOOKUP(B30,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="9">
         <f>VLOOKUP(C30,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="9">
         <f>VLOOKUP(C30,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -32113,8 +32115,8 @@
         <f t="shared" si="1"/>
         <v>S404M221</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2">
@@ -32126,19 +32128,19 @@
       <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="9">
         <f>VLOOKUP(B31,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="9">
         <f>VLOOKUP(B31,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="9">
         <f>VLOOKUP(C31,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="9">
         <f>VLOOKUP(C31,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -32149,8 +32151,8 @@
         <f t="shared" si="1"/>
         <v>S404S306</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2">
@@ -32162,19 +32164,19 @@
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="9">
         <f>VLOOKUP(B32,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <f>VLOOKUP(B32,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="9">
         <f>VLOOKUP(C32,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="9">
         <f>VLOOKUP(C32,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -32185,8 +32187,8 @@
         <f t="shared" si="1"/>
         <v>S405S302</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2">
@@ -32198,19 +32200,19 @@
       <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="9">
         <f>VLOOKUP(B33,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="9">
         <f>VLOOKUP(B33,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="9">
         <f>VLOOKUP(C33,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="9">
         <f>VLOOKUP(C33,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -32221,8 +32223,8 @@
         <f t="shared" si="1"/>
         <v>S405S305</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2">
@@ -32234,19 +32236,19 @@
       <c r="C34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <f>VLOOKUP(B34,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="9">
         <f>VLOOKUP(B34,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="9">
         <f>VLOOKUP(C34,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="9">
         <f>VLOOKUP(C34,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -32257,8 +32259,8 @@
         <f t="shared" si="1"/>
         <v>S405S460</v>
       </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2">
@@ -32270,19 +32272,19 @@
       <c r="C35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="9">
         <f>VLOOKUP(B35,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="9">
         <f>VLOOKUP(B35,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <f>VLOOKUP(C35,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="9">
         <f>VLOOKUP(C35,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -32293,8 +32295,8 @@
         <f t="shared" si="1"/>
         <v>S406S306</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2">
@@ -32306,19 +32308,19 @@
       <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="9">
         <f>VLOOKUP(B36,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="9">
         <f>VLOOKUP(B36,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="9">
         <f>VLOOKUP(C36,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="9">
         <f>VLOOKUP(C36,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -32329,8 +32331,8 @@
         <f t="shared" si="1"/>
         <v>S406S301</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2">
@@ -32342,19 +32344,19 @@
       <c r="C37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="9">
         <f>VLOOKUP(B37,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="9">
         <f>VLOOKUP(B37,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="9">
         <f>VLOOKUP(C37,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="9">
         <f>VLOOKUP(C37,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -32365,8 +32367,8 @@
         <f t="shared" si="1"/>
         <v>S406M221</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2">
@@ -32378,19 +32380,19 @@
       <c r="C38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <f>VLOOKUP(B38,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="9">
         <f>VLOOKUP(B38,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="9">
         <f>VLOOKUP(C38,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="9">
         <f>VLOOKUP(C38,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -32401,8 +32403,8 @@
         <f t="shared" si="1"/>
         <v>S406S302</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2">
@@ -32414,19 +32416,19 @@
       <c r="C39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="9">
         <f>VLOOKUP(B39,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="9">
         <f>VLOOKUP(B39,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="9">
         <f>VLOOKUP(C39,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="9">
         <f>VLOOKUP(C39,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -32437,8 +32439,8 @@
         <f t="shared" si="1"/>
         <v>S443S302</v>
       </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2">
@@ -32450,19 +32452,19 @@
       <c r="C40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="9">
         <f>VLOOKUP(B40,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="9">
         <f>VLOOKUP(B40,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="9">
         <f>VLOOKUP(C40,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="9">
         <f>VLOOKUP(C40,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -32473,8 +32475,8 @@
         <f t="shared" si="1"/>
         <v>S443S200</v>
       </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2">
@@ -32486,19 +32488,19 @@
       <c r="C41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="9">
         <f>VLOOKUP(B41,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="9">
         <f>VLOOKUP(B41,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="9">
         <f>VLOOKUP(C41,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="9">
         <f>VLOOKUP(C41,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -32509,8 +32511,8 @@
         <f t="shared" si="1"/>
         <v>S443S251</v>
       </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2">
@@ -32522,19 +32524,19 @@
       <c r="C42" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="9">
         <f>VLOOKUP(B42,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="9">
         <f>VLOOKUP(B42,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="9">
         <f>VLOOKUP(C42,courses_program1!A:C,2,0)</f>
         <v>1</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="9">
         <f>VLOOKUP(C42,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -32545,8 +32547,8 @@
         <f t="shared" si="1"/>
         <v>S443S300</v>
       </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2">
@@ -32558,19 +32560,19 @@
       <c r="C43" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="9">
         <f>VLOOKUP(B43,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="9">
         <f>VLOOKUP(B43,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="9">
         <f>VLOOKUP(C43,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="9">
         <f>VLOOKUP(C43,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -32581,8 +32583,8 @@
         <f t="shared" si="1"/>
         <v>S443S305</v>
       </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2">
@@ -32594,19 +32596,19 @@
       <c r="C44" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="9">
         <f>VLOOKUP(B44,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="9">
         <f>VLOOKUP(B44,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="9">
         <f>VLOOKUP(C44,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="9">
         <f>VLOOKUP(C44,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -32617,8 +32619,8 @@
         <f t="shared" si="1"/>
         <v>S445S306</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2">
@@ -32630,19 +32632,19 @@
       <c r="C45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="9">
         <f>VLOOKUP(B45,courses_program1!A:C,2,0)</f>
         <v>-6</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="9">
         <f>VLOOKUP(B45,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="9">
         <f>VLOOKUP(C45,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="9">
         <f>VLOOKUP(C45,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -32653,8 +32655,8 @@
         <f t="shared" si="1"/>
         <v>S447S305</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2">
@@ -32666,19 +32668,19 @@
       <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="9">
         <f>VLOOKUP(B46,courses_program1!A:C,2,0)</f>
         <v>6</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="9">
         <f>VLOOKUP(B46,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="9">
         <f>VLOOKUP(C46,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="9">
         <f>VLOOKUP(C46,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -32689,8 +32691,8 @@
         <f t="shared" si="1"/>
         <v>S450S306</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2">
@@ -32702,19 +32704,19 @@
       <c r="C47" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="9">
         <f>VLOOKUP(B47,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="9">
         <f>VLOOKUP(B47,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="9">
         <f>VLOOKUP(C47,courses_program1!A:C,2,0)</f>
         <v>-3</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="9">
         <f>VLOOKUP(C47,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
@@ -32725,8 +32727,8 @@
         <f t="shared" si="1"/>
         <v>S460M320</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2">
@@ -32738,19 +32740,19 @@
       <c r="C48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="9">
         <f>VLOOKUP(B48,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="9">
         <f>VLOOKUP(B48,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="9">
         <f>VLOOKUP(C48,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="9">
         <f>VLOOKUP(C48,courses_program1!A:C,3,0)</f>
         <v>12</v>
       </c>
@@ -32761,8 +32763,8 @@
         <f t="shared" si="1"/>
         <v>S460S305</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
@@ -32774,19 +32776,19 @@
       <c r="C49" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="9">
         <f>VLOOKUP(B49,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="9">
         <f>VLOOKUP(B49,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="9">
         <f>VLOOKUP(C49,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="9">
         <f>VLOOKUP(C49,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -32797,8 +32799,8 @@
         <f t="shared" si="1"/>
         <v>S460M221</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
@@ -32810,19 +32812,19 @@
       <c r="C50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="9">
         <f>VLOOKUP(B50,courses_program1!A:C,2,0)</f>
         <v>-1</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="9">
         <f>VLOOKUP(B50,courses_program1!A:C,3,0)</f>
         <v>21</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="9">
         <f>VLOOKUP(C50,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="9">
         <f>VLOOKUP(C50,courses_program1!A:C,3,0)</f>
         <v>18</v>
       </c>
@@ -32833,8 +32835,8 @@
         <f t="shared" si="1"/>
         <v>S461S460</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
@@ -32846,19 +32848,19 @@
       <c r="C51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="9">
         <f>VLOOKUP(B51,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="9">
         <f>VLOOKUP(B51,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="9">
         <f>VLOOKUP(C51,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="9">
         <f>VLOOKUP(C51,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -32869,8 +32871,8 @@
         <f t="shared" si="1"/>
         <v>M101M100</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2">
@@ -32882,19 +32884,19 @@
       <c r="C52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="9">
         <f>VLOOKUP(B52,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="9">
         <f>VLOOKUP(B52,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="9">
         <f>VLOOKUP(C52,courses_program1!A:C,2,0)</f>
         <v>-4</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="9">
         <f>VLOOKUP(C52,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
@@ -32905,8 +32907,8 @@
         <f t="shared" si="1"/>
         <v>M200M101</v>
       </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
@@ -32918,19 +32920,19 @@
       <c r="C53" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="9">
         <f>VLOOKUP(B53,courses_program1!A:C,2,0)</f>
         <v>4</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="9">
         <f>VLOOKUP(B53,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="9">
         <f>VLOOKUP(C53,courses_program1!A:C,2,0)</f>
         <v>0</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="9">
         <f>VLOOKUP(C53,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -32941,8 +32943,8 @@
         <f t="shared" si="1"/>
         <v>M221M100</v>
       </c>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
@@ -32954,19 +32956,19 @@
       <c r="C54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="9">
         <f>VLOOKUP(B54,courses_program1!A:C,2,0)</f>
         <v>-3</v>
       </c>
-      <c r="E54" s="8">
+      <c r="E54" s="9">
         <f>VLOOKUP(B54,courses_program1!A:C,3,0)</f>
         <v>9</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="9">
         <f>VLOOKUP(C54,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="9">
         <f>VLOOKUP(C54,courses_program1!A:C,3,0)</f>
         <v>6</v>
       </c>
@@ -32977,8 +32979,8 @@
         <f t="shared" si="1"/>
         <v>M320M200</v>
       </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2">
@@ -32990,19 +32992,19 @@
       <c r="C55" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="9">
         <f>VLOOKUP(B55,courses_program1!A:C,2,0)</f>
         <v>-2</v>
       </c>
-      <c r="E55" s="8">
+      <c r="E55" s="9">
         <f>VLOOKUP(B55,courses_program1!A:C,3,0)</f>
         <v>3</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="9">
         <f>VLOOKUP(C55,courses_program1!A:C,2,0)</f>
         <v>2</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="9">
         <f>VLOOKUP(C55,courses_program1!A:C,3,0)</f>
         <v>0</v>
       </c>
@@ -33013,123 +33015,123 @@
         <f t="shared" si="1"/>
         <v>D200D100</v>
       </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="11"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="12"/>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -617,7 +617,7 @@
   <si>
     <t>&lt;h3&gt;Course Information&lt;/h3&gt;
 &lt;p&gt;The course map presents all STAT, MATH, and DSCI courses along with prerequisite/corequisite connections. Hover over a course to view the course description, a complete list of prerequisites/corequisites, credit exclusions and notes. Select programs and streams in the menu above.&lt;/p&gt;
-&lt;p&gt;This course mapper was created by &lt;a href='https://github.com/siddiskid' target = '_blank'&gt;Siddarth Chilukuri&lt;/a&gt;, &lt;a href='#'&gt;Kevin Lin&lt;/a&gt;, and &lt;a href = '#'&gt;Brian Kim&lt;/a&gt;, based on the original course map by &lt;a href='https://patrickwalls.github.io/' target = '_blank'&gt;Patrick Walls&lt;/a&gt;, with contributions from &lt;a href='https://github.com/zzzzzyzzzzz' target = '_blank'&gt;Karen Zhou&lt;/a&gt; and &lt;a href='https://github.com/LeoLee5566' target = '_blank'&gt;Wuyang Li&lt;/a&gt;.&lt;/p&gt;
+&lt;p&gt;This course mapper was created by &lt;a href='https://github.com/siddiskid' target = '_blank'&gt;Siddarth Chilukuri&lt;/a&gt;, &lt;a href='#'&gt;Kevin Lin&lt;/a&gt;, and &lt;a href = '#'&gt;Brian Kim&lt;/a&gt;, based on the original course map by &lt;a href='https://patrickwalls.github.io/' target = '_blank'&gt;Patrick Walls&lt;/a&gt;, &lt;a href='https://github.com/zzzzzyzzzzz' target = '_blank'&gt;Karen Zhou&lt;/a&gt;, and &lt;a href='https://github.com/LeoLee5566' target = '_blank'&gt;Wuyang Li&lt;/a&gt;.&lt;/p&gt;
 &lt;p&gt;&lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/' target = '_blank'&gt;&lt;img alt='Creative Commons Licence' style='border-width:0' src='https://i.creativecommons.org/l/by-nc-sa/4.0/88x31.png' /&gt;&lt;/a&gt;&lt;br /&gt;This work is licensed under a &lt;a rel='license' href='http://creativecommons.org/licenses/by-nc-sa/4.0/' target = '_blank'&gt;Creative Commons Attribution-NonCommercial-ShareAlike 4.0 International License&lt;/a&gt;.&lt;/p&gt;</t>
   </si>
   <si>
